--- a/medicine/Mort/Terrorisme_en_2003/Terrorisme_en_2003.xlsx
+++ b/medicine/Mort/Terrorisme_en_2003/Terrorisme_en_2003.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Chronologie du terrorisme
@@ -495,7 +507,7 @@
 2006
 2007
 ►►
-En 2003, il y a eu 1 262 attentats qui ont causé la mort de 3 271 personnes. C'est l'année du XXIe siècle faisant le moins de victimes[1].
+En 2003, il y a eu 1 262 attentats qui ont causé la mort de 3 271 personnes. C'est l'année du XXIe siècle faisant le moins de victimes.
 </t>
         </is>
       </c>
@@ -526,37 +538,241 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Janvier
-Février
-7 février, Colombie : un attentat à la voiture piégée à Bogota, sur le parking du club El Nogal, fait trente-deux morts et plus de deux cents blessés[2],[3].
-Mars
-Avril
-Mai
-12 mai, Arabie saoudite : trois attentats à Riyad contre des intérêts occidentaux font vingt-neuf morts et près de blessés[4].
-16 mai, Maroc : cinq attentats-suicide à Casablanca font quarante-cinq morts et une centaine de blessés[5].
-Juin
-Juillet
-5 juillet, Russie : un attentat-suicide lors d'un concert à Moscou fait quinze morts et une cinquantaine de blessés[6].
-20 juillet, France : un double attentat à Nice, contre la direction régionale des Douanes, et la Trésorerie générale, fait seize blessés légers. L'attentat est revendiqué par le FLNC-UC[7].
-Août
-5 août, Indonésie : une explosion d'une voiture piégée devant l'hôtel Marriott à Jakarta fait treize morts et plus d'une centaine de blessés[8].
-7 août, Irak : l'explosion d'un camion piégé devant l'ambassade de Jordanie à Bagdad fait onze morts et une cinquantaine de blessés[9].
-19 août, Irak : un camion piégé explose à côté du siège de l'ONU à Bagdad, faisant vingt-trois morts et une centaine de blessés. Sérgio Vieira de Mello, représentant des Nations unies, est tué dans l'attentat[10],[11].
-25 août, Inde : deux attentats à la bombe à Bombay font quarante-quatre morts et plus de cent cinquante blessés[12].
-29 août, Irak : un attentat à la voiture piégée devant la mosquée de l'imam Ali à Najaf fait au moins quatre-vingts morts et une centaine de blessés[13],[14].
-Septembre
-Octobre
-27 octobre, Irak : cinq attentats en Irak contre quatre postes de police et le siège du comité international de la Croix-Rouge font une quarantaine de morts et plus de deux cents blessés[15],[16].
-Novembre
-8 novembre, Arabie saoudite : une explosion dans un quartier d'habitation à Riyad fait dix-sept morts et cent vingt-deux blessés[17].
-12 novembre, Irak : un camion piégé fonce sur le bâtiment principal de l'enceinte d'une base italienne à Nassiriya en Irak avant d'exploser. Le bilan est de vingt-six morts et une centaine de blessés[18],[19].
-15 novembre, Turquie : la première vague d'une série d'attentats des milieux islamistes liés à Al-Qaïda frappe Istanbul : deux synagogues sont visées. Les explosions provoquent la mort de vingt personnes et font plus de deux cent cinquante blessés[20],[21].
-20 novembre, Turquie : une seconde série d'attentats frappe Istanbul, visant la banque HSBC et le consulat général britannique. Ces attaques font vingt-sept morts — dont le consul général britannique Roger Short — et plus de quatre cent cinquante blessés[20],[22].
-22 novembre, Irak : au moins dix-huit irakiens, en majorité des policiers, sont tués dans un double attentat-suicide à la voiture piégée contre des commissariats au nord de Bagdad[23].
-Décembre
-5 décembre, Russie : un attentat-suicide dans un train au sud de la Russie fait au moins quarante morts et cent soixante-dix blessés[24].
-14 décembre, Irak : l'explosion d'une voiture piégée devant le poste de police de Khalidiyah fait dix-huit morts et de nombreux blessés[25].
-27 décembre, Irak : une série de quatre attentats à la voiture piégée à Kerbala fait dix-neuf morts et près de deux cents blessés[26].</t>
+          <t>Février</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>7 février, Colombie : un attentat à la voiture piégée à Bogota, sur le parking du club El Nogal, fait trente-deux morts et plus de deux cents blessés,.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Terrorisme_en_2003</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Terrorisme_en_2003</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Événements</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Mai</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>12 mai, Arabie saoudite : trois attentats à Riyad contre des intérêts occidentaux font vingt-neuf morts et près de blessés.
+16 mai, Maroc : cinq attentats-suicide à Casablanca font quarante-cinq morts et une centaine de blessés.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Terrorisme_en_2003</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Terrorisme_en_2003</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Événements</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Juillet</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>5 juillet, Russie : un attentat-suicide lors d'un concert à Moscou fait quinze morts et une cinquantaine de blessés.
+20 juillet, France : un double attentat à Nice, contre la direction régionale des Douanes, et la Trésorerie générale, fait seize blessés légers. L'attentat est revendiqué par le FLNC-UC.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Terrorisme_en_2003</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Terrorisme_en_2003</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Événements</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Août</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>5 août, Indonésie : une explosion d'une voiture piégée devant l'hôtel Marriott à Jakarta fait treize morts et plus d'une centaine de blessés.
+7 août, Irak : l'explosion d'un camion piégé devant l'ambassade de Jordanie à Bagdad fait onze morts et une cinquantaine de blessés.
+19 août, Irak : un camion piégé explose à côté du siège de l'ONU à Bagdad, faisant vingt-trois morts et une centaine de blessés. Sérgio Vieira de Mello, représentant des Nations unies, est tué dans l'attentat,.
+25 août, Inde : deux attentats à la bombe à Bombay font quarante-quatre morts et plus de cent cinquante blessés.
+29 août, Irak : un attentat à la voiture piégée devant la mosquée de l'imam Ali à Najaf fait au moins quatre-vingts morts et une centaine de blessés,.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Terrorisme_en_2003</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Terrorisme_en_2003</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Événements</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Octobre</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>27 octobre, Irak : cinq attentats en Irak contre quatre postes de police et le siège du comité international de la Croix-Rouge font une quarantaine de morts et plus de deux cents blessés,.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Terrorisme_en_2003</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Terrorisme_en_2003</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Événements</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Novembre</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>8 novembre, Arabie saoudite : une explosion dans un quartier d'habitation à Riyad fait dix-sept morts et cent vingt-deux blessés.
+12 novembre, Irak : un camion piégé fonce sur le bâtiment principal de l'enceinte d'une base italienne à Nassiriya en Irak avant d'exploser. Le bilan est de vingt-six morts et une centaine de blessés,.
+15 novembre, Turquie : la première vague d'une série d'attentats des milieux islamistes liés à Al-Qaïda frappe Istanbul : deux synagogues sont visées. Les explosions provoquent la mort de vingt personnes et font plus de deux cent cinquante blessés,.
+20 novembre, Turquie : une seconde série d'attentats frappe Istanbul, visant la banque HSBC et le consulat général britannique. Ces attaques font vingt-sept morts — dont le consul général britannique Roger Short — et plus de quatre cent cinquante blessés,.
+22 novembre, Irak : au moins dix-huit irakiens, en majorité des policiers, sont tués dans un double attentat-suicide à la voiture piégée contre des commissariats au nord de Bagdad.</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Terrorisme_en_2003</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Terrorisme_en_2003</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Événements</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Décembre</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>5 décembre, Russie : un attentat-suicide dans un train au sud de la Russie fait au moins quarante morts et cent soixante-dix blessés.
+14 décembre, Irak : l'explosion d'une voiture piégée devant le poste de police de Khalidiyah fait dix-huit morts et de nombreux blessés.
+27 décembre, Irak : une série de quatre attentats à la voiture piégée à Kerbala fait dix-neuf morts et près de deux cents blessés.</t>
         </is>
       </c>
     </row>
